--- a/MeaningCloud_IMDB_Reviews_sample.xlsx
+++ b/MeaningCloud_IMDB_Reviews_sample.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QuangDaoVuNgoc\github\bachelorthesis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008D3B52-CF2E-4B79-98BD-36C09D44409C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Global Sentiment Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>Polarity</t>
   </si>
@@ -35,13 +42,49 @@
   </si>
   <si>
     <t>truly enjoyed film acting terrific plot jeff combs talent recognized for part flick would change ending death creature far gruesome sci fi channel there interesting religious messages film jeff combs obviously played messiah figure creature or shark prefer represented anti chirst particularly frightening scenes end world feel noticed third viewing classic creature feature know many people will not get references christianity watch close you ll get it</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Agreement</t>
+  </si>
+  <si>
+    <t>Confidence</t>
+  </si>
+  <si>
+    <t>Irony</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>AGREEMENT</t>
+  </si>
+  <si>
+    <t>NONIRONIC</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>DISAGREEMENT</t>
+  </si>
+  <si>
+    <t>IRONIC</t>
+  </si>
+  <si>
+    <t>P+</t>
+  </si>
+  <si>
+    <t>Polarity_result</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,13 +100,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF52B9E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4EDC5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCA4AB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF84D173"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -93,10 +168,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -104,6 +197,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -150,7 +251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -182,9 +283,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,6 +335,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -391,62 +528,207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-1</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-1</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D115DE6-1469-454C-BBB3-453955C0FB41}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="100.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5">
+        <v>100</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5">
+        <v>86</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5">
+        <v>74</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5">
+        <v>98</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5">
+        <v>84</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>